--- a/tut06/output/2001CB03.xlsx
+++ b/tut06/output/2001CB03.xlsx
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -574,10 +574,10 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -766,10 +766,10 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -838,10 +838,10 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
